--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45929</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44866</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44644</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45698</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>44246</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45274</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45478.35973379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45838.65465277778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45849</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45180</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>46028.54833333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>45742.60076388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45688</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44356.70517361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44862.72539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>44890</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44245</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>44414.99443287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44245</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44613</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44692</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44678</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44481.33537037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44862.72409722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44874.46519675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44245.07658564814</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44685</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44831</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44882</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44722</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44356</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44491.42908564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44414.99625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44379</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44265</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44721</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44722.41596064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44266.40785879629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44874</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44537.75804398148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44459</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44861.36121527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44474</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44490.73391203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44841</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44469.69740740741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44540</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>45092</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>45728.66420138889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44452.3075</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44508.5356712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45218.36673611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45093</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>45751.46355324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>45265</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>45055</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44266</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>45667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44958</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>45028</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>45736.63921296296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45097</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>45218.36055555556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45295</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45265</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44736.4803587963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45663.66900462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44342</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45190</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>44974.46912037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45090</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45692</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45756</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45222.67434027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45159.57116898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44754.7230787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45772</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45245</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45754</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>45891.53243055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44979.56503472223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45890.62998842593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45891.58826388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45736.61449074074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>45742.69717592592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45709.62162037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>45817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>45817</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44901.38127314814</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>45817</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>45817</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44379</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>44588.52334490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45190.58648148148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>45231.3040625</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45818.74125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45819</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45756</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45756</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45191</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>44813</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45194.4577199074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45904.50119212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45904</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>45904.52766203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>45908.47822916666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>45908.38768518518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>45174</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>45279.76971064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45919.50013888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45831.68800925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45923.32045138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45922.59006944444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45635.67076388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45924.68145833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45924.68908564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45791.37603009259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45926.62881944444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45926.63214120371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45926.6360300926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>45926.62587962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>45926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>45926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>45926.64165509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>45926.63993055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>45926.60870370371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45926.67387731482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45244</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45244</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45834.39778935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45926.64915509259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45926.62155092593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45838.65972222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45838.66276620371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45365</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45933.68805555555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45254</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45838.60056712963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44965</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45838.66570601852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45737.46815972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>44865</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45106.62018518519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45119</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44964.45189814815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45159.56690972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45159.56805555556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45197.55799768519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45250.68373842593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>45846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>45846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>45742.30456018518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45376.69920138889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45849</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45849</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45849</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45849</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45849.70490740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45849</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>45572.47253472222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45063</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45586</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45359.57516203704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45771</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45169</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44917</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45504</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45215.50618055555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45211</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44861</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45315</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>45876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45490.92943287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45876.70543981482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>45961.39364583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>45399</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45684.44912037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44531</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>45701.65451388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45701.65701388889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44937.70653935185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>45884.4155787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>45974.37890046297</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>45974.38498842593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45426</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45985.6334375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45985.63653935185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45985.62814814815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45244</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45546.86643518518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45106.61258101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45194</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45747.93793981482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44862</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44953</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45188.50635416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>45601.61900462963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>46036.47854166666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44761</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44901.37307870371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45667.52725694444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44984.65405092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45159.56984953704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>46003.28984953704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>46003.29744212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>46003.30361111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>44805</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45119</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>46003.28515046297</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45701.65225694444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>44883</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45194.57081018519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45190</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>46008.5571875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>46050.59628472223</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>46008.54895833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>46050.59915509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46050.53184027778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>46055</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>46055.41913194444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>46055</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44956.54292824074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44911</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>46010.51506944445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>46055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45282</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45734.59517361111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45734.59896990741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44517</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>46038</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44966</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>46056</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44978</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44984</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45058.5816087963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45684.44605324074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45601</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>44911</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45685</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45344.61145833333</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45719.69598379629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45719.69930555556</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45058</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44956.55607638889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45719.70283564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45701.66054398148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44711.45055555556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45218.36380787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45567.42827546296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44618</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45293.68796296296</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44469.69513888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45208</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>45614</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>44951.5440625</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45187.65445601852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45187.65685185185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45295</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44966</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45061</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>45601.6178125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45684.42604166667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45215</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>45295.5071875</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45489.47268518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45664</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>44890</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>45239.48508101852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45692</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45250.65650462963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>45181</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>45742.60605324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>45586</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44994.48273148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>45756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>45756</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45559.46480324074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44965</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45737.48712962963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45174</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44572</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45737.61777777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44753.39758101852</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45595.46804398148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45628.83202546297</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45174</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45379</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45097</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45719.69138888889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45194.44329861111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45180.52923611111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45687.26951388889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45707</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44368</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45197</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45055</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45447.38427083333</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45701.66480324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45440.46841435185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45737.57474537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45737.65708333333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>45700</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45782.49765046296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>45222.67246527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>45504</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45504</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>45435.35898148148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45601.60746527778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>45692</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>45504</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45504</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>45184</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45790.43162037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45793.35023148148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45793.35515046296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45792.41533564815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45257</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45797.58252314815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45797</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45797.57797453704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45797.59006944444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45797.58002314815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45797.57333333333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45929</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44866</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44644</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45698</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>44246</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45274</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45478.35973379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45838.65465277778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45849</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45180</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>46028.54833333333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>45742.60076388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45688</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44356.70517361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44862.72539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>44890</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44245</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>44414.99443287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44245</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44613</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44692</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44678</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44481.33537037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44862.72409722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44874.46519675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44245.07658564814</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44685</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44831</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44882</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44722</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44356</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44491.42908564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44414.99625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44379</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44265</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44721</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44722.41596064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44266.40785879629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44874</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44537.75804398148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44459</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44861.36121527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44474</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44490.73391203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44841</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44294</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44469.69740740741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44540</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>45092</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>45728.66420138889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44452.3075</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44508.5356712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45218.36673611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45093</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>45751.46355324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>45265</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>45055</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44266</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>45667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44958</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>45028</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>45736.63921296296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45097</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>45218.36055555556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45295</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45265</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44736.4803587963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45663.66900462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44342</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45190</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>44974.46912037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45090</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45685</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45692</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45756</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45222.67434027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45159.57116898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44754.7230787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45772</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45245</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>45754</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>45891.53243055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44979.56503472223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45890.62998842593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45891.58826388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45736.61449074074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>45742.69717592592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45709.62162037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>45817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>45817</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44901.38127314814</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>45817</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>45817</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44379</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>44588.52334490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45190.58648148148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>45231.3040625</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45818.74125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45819</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45756</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45756</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45191</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>44813</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45194.4577199074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45904.50119212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45904</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>45904.52766203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>45908.47822916666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>45908.38768518518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>45174</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44775</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>45279.76971064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45919.50013888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45831.68800925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45923.32045138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45922.59006944444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45635.67076388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45924.68145833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45924.68908564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45791.37603009259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45926.62881944444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45926.63214120371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45926.6360300926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>45926.62587962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>45926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>45926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>45926.64165509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>45926.63993055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>45926.60870370371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45926.67387731482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45244</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45244</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45834.39778935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45926.64915509259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45926.62155092593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45838.65972222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45838.66276620371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45365</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45933.68805555555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45254</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45838.60056712963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44965</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45838.66570601852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45737.46815972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>44865</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45106.62018518519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45119</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44964.45189814815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45159.56690972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45159.56805555556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45197.55799768519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45250.68373842593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>45846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>45846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>45742.30456018518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45376.69920138889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45849</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45849</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45849</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45849</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45849.70490740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45849</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>45572.47253472222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45063</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45586</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45359.57516203704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45771</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45169</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44917</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45504</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45215.50618055555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45211</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44861</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45315</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>45876</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45490.92943287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45876.70543981482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>45961.39364583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>45399</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45684.44912037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44531</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>45701.65451388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45701.65701388889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44937.70653935185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>45884.4155787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>45974.37890046297</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>45974.38498842593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45426</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45985.6334375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45985.63653935185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45985.62814814815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45244</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45546.86643518518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45106.61258101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45194</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45747.93793981482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44862</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44953</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45188.50635416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>45601.61900462963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>46036.47854166666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44761</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44901.37307870371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45667.52725694444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44984.65405092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45159.56984953704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>46003.28984953704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>46003.29744212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>46003.30361111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>44805</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45119</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>46003.28515046297</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45701.65225694444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>44883</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45194.57081018519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45190</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>46008.5571875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>46050.59628472223</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>46008.54895833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>46050.59915509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46050.53184027778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>46055</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>46055.41913194444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>46055</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44956.54292824074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44911</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>46010.51506944445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>46055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45282</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45734.59517361111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45734.59896990741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44517</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>46038</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44966</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>46056</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44978</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44984</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45215</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45058.5816087963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45684.44605324074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45601</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>44911</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45685</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45344.61145833333</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45719.69598379629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45719.69930555556</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45058</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44956.55607638889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45719.70283564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45701.66054398148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44711.45055555556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45218.36380787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45567.42827546296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44618</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45293.68796296296</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44469.69513888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45208</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>45614</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>44951.5440625</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45756</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45187.65445601852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45187.65685185185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45295</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44966</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45061</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>45601.6178125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>45684.42604166667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45215</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>45295.5071875</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45489.47268518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45664</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>44890</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>45239.48508101852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45692</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45250.65650462963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>45181</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>45742.60605324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>45586</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44994.48273148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>45756</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>45756</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45559.46480324074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44965</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45737.48712962963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45174</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44572</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45737.61777777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44753.39758101852</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45595.46804398148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45628.83202546297</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45174</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45379</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45097</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>44888</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45719.69138888889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45194.44329861111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45180.52923611111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45687.26951388889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45707</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44368</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45197</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45055</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45447.38427083333</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45701.66480324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45440.46841435185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45737.57474537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45737.65708333333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>45700</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45782.49765046296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>45222.67246527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>45504</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45504</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>45435.35898148148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45601.60746527778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>45692</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>45504</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45504</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>45184</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45790.43162037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45793.35023148148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45793.35515046296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45792.41533564815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45257</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45797.58252314815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45797</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45797.57797453704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45797.59006944444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45797.58002314815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45797.57333333333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
